--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45293</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45293</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45294</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45294</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45294</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45293</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45293</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45294</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45293</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45293</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>45292</v>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45292</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45292</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45293</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45293</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45293</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45294</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -769,36 +769,36 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45296</v>
+        <v>45294</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -812,16 +812,74 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +949,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -938,16 +996,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -971,11 +1029,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -985,6 +1043,62 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>ORD_20240103_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ORD_20240103_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ORD_20240103_5</t>
         </is>
       </c>
     </row>
@@ -999,7 +1113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1163,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1072,7 +1186,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1095,7 +1209,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1118,7 +1232,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1128,7 +1242,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1137,11 +1251,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1151,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1160,11 +1274,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1174,7 +1288,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45297</v>
+        <v>45301</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1183,11 +1297,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1197,7 +1311,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45298</v>
+        <v>45302</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1206,11 +1320,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1220,11 +1334,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45295</v>
+        <v>45303</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1233,7 +1347,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1243,11 +1357,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45296</v>
+        <v>45304</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1256,7 +1370,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1266,11 +1380,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45297</v>
+        <v>45305</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1279,7 +1393,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1289,11 +1403,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45298</v>
+        <v>45306</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1302,7 +1416,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1312,7 +1426,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45299</v>
+        <v>45307</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1325,7 +1439,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1335,7 +1449,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45300</v>
+        <v>45308</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1358,7 +1472,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1381,7 +1495,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45302</v>
+        <v>45310</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1404,7 +1518,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45303</v>
+        <v>45311</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1427,7 +1541,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45304</v>
+        <v>45312</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1450,7 +1564,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45305</v>
+        <v>45313</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1463,7 +1577,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1473,7 +1587,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45299</v>
+        <v>45314</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1482,11 +1596,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1496,7 +1610,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45300</v>
+        <v>45315</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1505,11 +1619,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1519,7 +1633,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45301</v>
+        <v>45316</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1528,11 +1642,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1542,7 +1656,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45302</v>
+        <v>45317</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1551,11 +1665,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1565,7 +1679,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45303</v>
+        <v>45318</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1574,11 +1688,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1588,7 +1702,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45304</v>
+        <v>45319</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1597,11 +1711,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1611,7 +1725,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45305</v>
+        <v>45320</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1620,11 +1734,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1634,11 +1748,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45299</v>
+        <v>45321</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1647,7 +1761,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1657,11 +1771,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45300</v>
+        <v>45322</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1670,7 +1784,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1680,11 +1794,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45301</v>
+        <v>45323</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1693,7 +1807,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1703,11 +1817,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45302</v>
+        <v>45324</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1716,7 +1830,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1726,11 +1840,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45303</v>
+        <v>45325</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1739,7 +1853,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1749,11 +1863,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45304</v>
+        <v>45326</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1762,7 +1876,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1772,11 +1886,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45305</v>
+        <v>45327</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1785,7 +1899,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1795,7 +1909,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45306</v>
+        <v>45328</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1808,7 +1922,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1818,7 +1932,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45307</v>
+        <v>45329</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1831,7 +1945,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1841,7 +1955,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45308</v>
+        <v>45330</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1854,7 +1968,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1864,7 +1978,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45309</v>
+        <v>45331</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1877,7 +1991,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1887,7 +2001,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45310</v>
+        <v>45332</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1900,7 +2014,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1910,7 +2024,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45311</v>
+        <v>45333</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1923,7 +2037,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1933,7 +2047,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45312</v>
+        <v>45334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1946,7 +2060,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1956,7 +2070,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45306</v>
+        <v>45335</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1965,11 +2079,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1979,7 +2093,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45307</v>
+        <v>45336</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1988,11 +2102,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2002,7 +2116,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45308</v>
+        <v>45337</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2011,11 +2125,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2025,7 +2139,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45309</v>
+        <v>45338</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2034,11 +2148,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2048,7 +2162,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45310</v>
+        <v>45339</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2057,11 +2171,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2071,7 +2185,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45311</v>
+        <v>45340</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2080,11 +2194,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2094,7 +2208,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45312</v>
+        <v>45341</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2103,11 +2217,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2117,11 +2231,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2130,7 +2244,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2140,11 +2254,11 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45307</v>
+        <v>45343</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2153,7 +2267,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2163,11 +2277,11 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45308</v>
+        <v>45344</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2176,7 +2290,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2186,11 +2300,11 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45309</v>
+        <v>45345</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2199,7 +2313,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2209,11 +2323,11 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45310</v>
+        <v>45346</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2222,7 +2336,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2232,11 +2346,11 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45311</v>
+        <v>45347</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2245,7 +2359,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2255,11 +2369,11 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45312</v>
+        <v>45348</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2268,7 +2382,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2278,7 +2392,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45313</v>
+        <v>45349</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2291,7 +2405,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2301,7 +2415,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45314</v>
+        <v>45350</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2314,7 +2428,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2324,7 +2438,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45315</v>
+        <v>45351</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2337,7 +2451,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2347,7 +2461,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45316</v>
+        <v>45352</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2360,7 +2474,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2370,7 +2484,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45317</v>
+        <v>45353</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2383,7 +2497,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2393,7 +2507,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45318</v>
+        <v>45354</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2406,7 +2520,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2416,7 +2530,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45319</v>
+        <v>45355</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2429,7 +2543,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2439,7 +2553,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45313</v>
+        <v>45356</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2448,11 +2562,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2462,7 +2576,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45314</v>
+        <v>45357</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2471,11 +2585,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2485,7 +2599,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45315</v>
+        <v>45358</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2494,11 +2608,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2508,7 +2622,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45316</v>
+        <v>45359</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2517,11 +2631,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2531,7 +2645,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45317</v>
+        <v>45360</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2540,11 +2654,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2554,7 +2668,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45318</v>
+        <v>45361</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2563,11 +2677,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2577,7 +2691,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45319</v>
+        <v>45362</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2586,11 +2700,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2600,11 +2714,11 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45313</v>
+        <v>45363</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2613,7 +2727,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2623,11 +2737,11 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45314</v>
+        <v>45364</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2636,7 +2750,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2646,11 +2760,11 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45315</v>
+        <v>45365</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2659,7 +2773,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2669,11 +2783,11 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45316</v>
+        <v>45366</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2682,7 +2796,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2692,11 +2806,11 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45317</v>
+        <v>45367</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2705,7 +2819,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2715,11 +2829,11 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45318</v>
+        <v>45368</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2728,7 +2842,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2738,11 +2852,11 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45319</v>
+        <v>45369</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2751,7 +2865,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2761,7 +2875,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45320</v>
+        <v>45370</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2774,7 +2888,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2784,7 +2898,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45321</v>
+        <v>45371</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2797,7 +2911,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2807,7 +2921,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45322</v>
+        <v>45372</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2820,7 +2934,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2830,7 +2944,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45323</v>
+        <v>45373</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2843,7 +2957,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2853,7 +2967,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45324</v>
+        <v>45374</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2866,7 +2980,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2876,7 +2990,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45325</v>
+        <v>45375</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2889,7 +3003,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2899,7 +3013,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45326</v>
+        <v>45295</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2908,11 +3022,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2922,7 +3036,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45320</v>
+        <v>45296</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2935,7 +3049,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2945,7 +3059,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45321</v>
+        <v>45297</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2958,7 +3072,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2968,7 +3082,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45322</v>
+        <v>45298</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2981,7 +3095,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2991,7 +3105,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45323</v>
+        <v>45299</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3004,7 +3118,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3014,7 +3128,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45324</v>
+        <v>45300</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3027,7 +3141,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3037,7 +3151,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45325</v>
+        <v>45301</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3050,7 +3164,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3060,7 +3174,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45326</v>
+        <v>45302</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3073,7 +3187,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3083,20 +3197,20 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45320</v>
+        <v>45303</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3106,20 +3220,20 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45321</v>
+        <v>45304</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3129,20 +3243,20 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45322</v>
+        <v>45305</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3152,20 +3266,20 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45323</v>
+        <v>45306</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3175,20 +3289,20 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45324</v>
+        <v>45307</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3198,20 +3312,20 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45325</v>
+        <v>45308</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3221,20 +3335,20 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45326</v>
+        <v>45309</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3244,7 +3358,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45327</v>
+        <v>45310</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3253,11 +3367,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3267,7 +3381,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45328</v>
+        <v>45311</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3276,11 +3390,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3290,7 +3404,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45329</v>
+        <v>45312</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3299,11 +3413,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3313,7 +3427,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45330</v>
+        <v>45313</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3322,11 +3436,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3336,7 +3450,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45331</v>
+        <v>45314</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3345,11 +3459,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3359,7 +3473,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45332</v>
+        <v>45315</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3368,11 +3482,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3382,7 +3496,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45333</v>
+        <v>45316</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3391,11 +3505,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3405,7 +3519,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45327</v>
+        <v>45317</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3418,7 +3532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3428,7 +3542,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45328</v>
+        <v>45318</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3441,7 +3555,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3451,7 +3565,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45329</v>
+        <v>45319</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3464,7 +3578,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3474,7 +3588,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45330</v>
+        <v>45320</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3487,7 +3601,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3497,7 +3611,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45331</v>
+        <v>45321</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3510,7 +3624,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3520,7 +3634,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45332</v>
+        <v>45322</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3533,7 +3647,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3543,7 +3657,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45333</v>
+        <v>45323</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3556,7 +3670,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3566,20 +3680,20 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3589,20 +3703,20 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45328</v>
+        <v>45325</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3612,20 +3726,20 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45329</v>
+        <v>45326</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3635,20 +3749,20 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45330</v>
+        <v>45327</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3658,20 +3772,20 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45331</v>
+        <v>45328</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3681,20 +3795,20 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45332</v>
+        <v>45329</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3704,20 +3818,20 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45333</v>
+        <v>45330</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3727,7 +3841,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3736,11 +3850,11 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3750,7 +3864,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45335</v>
+        <v>45332</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3759,11 +3873,11 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3773,7 +3887,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45336</v>
+        <v>45333</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3782,11 +3896,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3796,7 +3910,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45337</v>
+        <v>45334</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3805,11 +3919,11 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3819,7 +3933,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45338</v>
+        <v>45335</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3828,11 +3942,11 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3842,7 +3956,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45339</v>
+        <v>45336</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3851,11 +3965,11 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3865,7 +3979,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45340</v>
+        <v>45337</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3874,11 +3988,11 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3888,7 +4002,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3901,7 +4015,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3911,7 +4025,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45335</v>
+        <v>45339</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3924,7 +4038,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3934,7 +4048,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45336</v>
+        <v>45340</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3947,7 +4061,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3957,7 +4071,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3970,7 +4084,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3980,7 +4094,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3993,7 +4107,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4003,7 +4117,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4016,7 +4130,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4026,7 +4140,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45340</v>
+        <v>45344</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4039,7 +4153,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4049,20 +4163,20 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45334</v>
+        <v>45345</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4072,20 +4186,20 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45335</v>
+        <v>45346</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4095,20 +4209,20 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45336</v>
+        <v>45347</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4118,20 +4232,20 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45337</v>
+        <v>45348</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4141,20 +4255,20 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45338</v>
+        <v>45349</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4164,20 +4278,20 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45339</v>
+        <v>45350</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4187,20 +4301,20 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45340</v>
+        <v>45351</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4210,7 +4324,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45341</v>
+        <v>45352</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4219,11 +4333,11 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4233,7 +4347,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45342</v>
+        <v>45353</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4242,11 +4356,11 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4256,7 +4370,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45343</v>
+        <v>45354</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4265,11 +4379,11 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4279,7 +4393,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45344</v>
+        <v>45355</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4288,11 +4402,11 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4302,7 +4416,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45345</v>
+        <v>45356</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4311,11 +4425,11 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4325,7 +4439,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45346</v>
+        <v>45357</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4334,11 +4448,11 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4348,7 +4462,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45347</v>
+        <v>45358</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4357,11 +4471,11 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4371,7 +4485,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45341</v>
+        <v>45359</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4384,7 +4498,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4394,7 +4508,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45342</v>
+        <v>45360</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4407,7 +4521,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4417,7 +4531,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45343</v>
+        <v>45361</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4430,7 +4544,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4440,7 +4554,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45344</v>
+        <v>45362</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4453,7 +4567,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4463,7 +4577,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45345</v>
+        <v>45363</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4476,7 +4590,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4486,7 +4600,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45346</v>
+        <v>45364</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4499,7 +4613,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4509,7 +4623,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45347</v>
+        <v>45365</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4522,7 +4636,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4532,20 +4646,20 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45341</v>
+        <v>45366</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4555,20 +4669,20 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45342</v>
+        <v>45367</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4578,20 +4692,20 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45343</v>
+        <v>45368</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4601,20 +4715,20 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45344</v>
+        <v>45369</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4624,20 +4738,20 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45345</v>
+        <v>45370</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4647,20 +4761,20 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45346</v>
+        <v>45371</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4670,20 +4784,20 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45347</v>
+        <v>45372</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4693,7 +4807,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45348</v>
+        <v>45373</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4702,11 +4816,11 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4716,7 +4830,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45349</v>
+        <v>45374</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4725,11 +4839,11 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4739,7 +4853,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45350</v>
+        <v>45375</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4748,11 +4862,11 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4762,7 +4876,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45351</v>
+        <v>45295</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4771,11 +4885,11 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4785,7 +4899,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45352</v>
+        <v>45296</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4794,11 +4908,11 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4808,7 +4922,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45353</v>
+        <v>45297</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4817,11 +4931,11 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4831,7 +4945,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45354</v>
+        <v>45298</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4840,11 +4954,11 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4854,7 +4968,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45348</v>
+        <v>45299</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4863,11 +4977,11 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4877,7 +4991,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45349</v>
+        <v>45300</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4886,11 +5000,11 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4900,7 +5014,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45350</v>
+        <v>45301</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4909,11 +5023,11 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4923,7 +5037,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45351</v>
+        <v>45302</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4932,11 +5046,11 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4946,7 +5060,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45352</v>
+        <v>45303</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4955,11 +5069,11 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4969,7 +5083,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45353</v>
+        <v>45304</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4978,11 +5092,11 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4992,7 +5106,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45354</v>
+        <v>45305</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5001,11 +5115,11 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5015,20 +5129,20 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45348</v>
+        <v>45306</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5038,20 +5152,20 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45349</v>
+        <v>45307</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5061,20 +5175,20 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45350</v>
+        <v>45308</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5084,20 +5198,20 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45351</v>
+        <v>45309</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5107,20 +5221,20 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45352</v>
+        <v>45310</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5130,20 +5244,20 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45353</v>
+        <v>45311</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5153,20 +5267,20 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45354</v>
+        <v>45312</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5176,7 +5290,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45355</v>
+        <v>45313</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5185,11 +5299,11 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5199,7 +5313,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45356</v>
+        <v>45314</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5208,11 +5322,11 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5222,7 +5336,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45357</v>
+        <v>45315</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5231,11 +5345,11 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5245,7 +5359,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45358</v>
+        <v>45316</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5254,11 +5368,11 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5268,7 +5382,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45359</v>
+        <v>45317</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5277,11 +5391,11 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5291,7 +5405,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45360</v>
+        <v>45318</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5300,11 +5414,11 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5314,7 +5428,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45361</v>
+        <v>45319</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5323,11 +5437,11 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5337,7 +5451,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45355</v>
+        <v>45320</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5346,11 +5460,11 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5360,7 +5474,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45356</v>
+        <v>45321</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5369,11 +5483,11 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5383,7 +5497,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45357</v>
+        <v>45322</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5392,11 +5506,11 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5406,7 +5520,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45358</v>
+        <v>45323</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5415,11 +5529,11 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5429,7 +5543,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45359</v>
+        <v>45324</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5438,11 +5552,11 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5452,7 +5566,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45360</v>
+        <v>45325</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5461,11 +5575,11 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5475,7 +5589,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45361</v>
+        <v>45326</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5484,11 +5598,11 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5498,20 +5612,20 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45355</v>
+        <v>45327</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5521,20 +5635,20 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45356</v>
+        <v>45328</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5544,20 +5658,20 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45357</v>
+        <v>45329</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5567,20 +5681,20 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45358</v>
+        <v>45330</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5590,20 +5704,20 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45359</v>
+        <v>45331</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5613,20 +5727,20 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45360</v>
+        <v>45332</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5636,20 +5750,20 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45361</v>
+        <v>45333</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5659,7 +5773,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45362</v>
+        <v>45334</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5668,11 +5782,11 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5682,7 +5796,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45363</v>
+        <v>45335</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5691,11 +5805,11 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5705,7 +5819,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45364</v>
+        <v>45336</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5714,11 +5828,11 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5728,7 +5842,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45365</v>
+        <v>45337</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5737,11 +5851,11 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5751,7 +5865,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45366</v>
+        <v>45338</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5760,11 +5874,11 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5774,7 +5888,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45367</v>
+        <v>45339</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5783,11 +5897,11 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5797,7 +5911,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45368</v>
+        <v>45340</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5806,11 +5920,11 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5820,7 +5934,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45362</v>
+        <v>45341</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5829,11 +5943,11 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5843,7 +5957,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45363</v>
+        <v>45342</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5852,11 +5966,11 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5866,7 +5980,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45364</v>
+        <v>45343</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5875,11 +5989,11 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5889,7 +6003,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45365</v>
+        <v>45344</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5898,11 +6012,11 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5912,7 +6026,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45366</v>
+        <v>45345</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5921,11 +6035,11 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -5935,7 +6049,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45367</v>
+        <v>45346</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5944,11 +6058,11 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5958,7 +6072,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45368</v>
+        <v>45347</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5967,11 +6081,11 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5981,20 +6095,20 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45362</v>
+        <v>45348</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6004,20 +6118,20 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45363</v>
+        <v>45349</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6027,20 +6141,20 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45364</v>
+        <v>45350</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6050,20 +6164,20 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45365</v>
+        <v>45351</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6073,20 +6187,20 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45366</v>
+        <v>45352</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6096,20 +6210,20 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45367</v>
+        <v>45353</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6119,20 +6233,20 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45368</v>
+        <v>45354</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6142,7 +6256,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45369</v>
+        <v>45355</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6151,11 +6265,11 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6165,7 +6279,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45370</v>
+        <v>45356</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6174,11 +6288,11 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6188,7 +6302,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45371</v>
+        <v>45357</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6197,11 +6311,11 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6211,7 +6325,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45372</v>
+        <v>45358</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6220,11 +6334,11 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6234,7 +6348,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45373</v>
+        <v>45359</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6243,11 +6357,11 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6257,7 +6371,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45374</v>
+        <v>45360</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6266,11 +6380,11 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6280,7 +6394,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45375</v>
+        <v>45361</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6289,11 +6403,11 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6303,7 +6417,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45369</v>
+        <v>45362</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6312,11 +6426,11 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6326,7 +6440,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45370</v>
+        <v>45363</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6335,11 +6449,11 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6349,7 +6463,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45371</v>
+        <v>45364</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6358,11 +6472,11 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6372,7 +6486,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45372</v>
+        <v>45365</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6381,11 +6495,11 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6395,7 +6509,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45373</v>
+        <v>45366</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -6404,11 +6518,11 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -6418,7 +6532,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45374</v>
+        <v>45367</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6427,11 +6541,11 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6441,7 +6555,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45375</v>
+        <v>45368</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -6450,11 +6564,11 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6468,16 +6582,16 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6491,16 +6605,16 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6514,16 +6628,16 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -6537,16 +6651,16 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6560,16 +6674,16 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -6583,16 +6697,16 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6606,18 +6720,3744 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E244" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>19</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>17</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>19</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>19</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>22</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>22</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>22</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>21</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>21</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>21</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>21</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>30</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>29</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>29</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>29</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>29</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>29</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>29</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>28</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>27</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>27</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>27</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>27</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>27</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>27</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>29</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>29</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>29</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>29</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>29</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>29</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>29</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>34</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>34</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>34</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>34</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>34</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>34</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>34</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>36</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>36</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>36</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>35</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>35</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>35</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>35</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>39</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>39</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>39</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>39</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>39</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>39</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>38</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>41</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>40</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>40</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>40</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>40</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>40</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>40</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>43</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>43</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>43</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>43</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>43</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>42</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>42</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>45</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>45</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>45</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>45</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>45</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>44</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>44</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>47</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>47</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>47</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>47</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>46</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>46</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>46</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>33</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>33</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>33</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>32</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>45</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>45</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>45</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>45</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>44</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>44</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>44</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>50</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>50</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>49</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>49</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>49</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>49</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>49</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>46</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>46</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>46</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>46</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>46</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>46</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>46</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>56</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>56</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>56</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>55</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>55</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>55</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>55</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>58</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>58</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>58</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>58</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>57</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>57</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>57</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>65</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>65</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>65</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>65</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>64</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>64</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>64</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>66</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>66</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>66</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>66</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>66</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>65</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>65</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>71</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>71</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>71</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>70</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>70</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>70</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>70</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>73</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>73</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>72</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>72</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>72</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>72</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>72</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>77</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>77</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>76</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>76</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>76</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>76</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>76</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>79</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>79</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>79</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>79</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>79</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>79</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>78</v>
+      </c>
+      <c r="E406" t="inlineStr">
         <is>
           <t>forecast</t>
         </is>
@@ -6666,13 +10506,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45295</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module1/module1_output_20240103.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45294</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45294</v>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45294</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>45294</v>
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
